--- a/oclog/openset/notebooks/mytest.xlsx
+++ b/oclog/openset/notebooks/mytest.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>id</t>
   </si>
@@ -127,6 +133,9 @@
     <t>ptmodel_path</t>
   </si>
   <si>
+    <t>pt_time</t>
+  </si>
+  <si>
     <t>feature_from</t>
   </si>
   <si>
@@ -163,7 +172,28 @@
     <t>oc_optimizer</t>
   </si>
   <si>
-    <t>2022-04-26_20_15_56.052916_943a3d0dc56f11ecba05ac8247733f47</t>
+    <t>oc_tr_time</t>
+  </si>
+  <si>
+    <t>centroid_plot_start</t>
+  </si>
+  <si>
+    <t>total_oc_time</t>
+  </si>
+  <si>
+    <t>tsne_n_iter</t>
+  </si>
+  <si>
+    <t>tsne_perplexity</t>
+  </si>
+  <si>
+    <t>2022-04-27_06_53_57.955941_b60511fbc5c811ecba05ac8247733f47</t>
+  </si>
+  <si>
+    <t>2022-04-27_07_52_11.033363_d80e62c1c5d011ecba05ac8247733f47</t>
+  </si>
+  <si>
+    <t>2022-04-27_08_20_12.307190_c22c69a3c5d411eca8e1ac8247733f47</t>
   </si>
   <si>
     <t>C:\ML_data\Logs\BGL.log</t>
@@ -184,6 +214,9 @@
     <t>4.9835577,4.987583,5.033294,4.9719653,4.9852686</t>
   </si>
   <si>
+    <t>6.8490844,6.853139</t>
+  </si>
+  <si>
     <t>adam</t>
   </si>
   <si>
@@ -193,7 +226,13 @@
     <t>ptmodel</t>
   </si>
   <si>
-    <t>data\ptmodel_2022-04-26_20_13_05.488013/</t>
+    <t>data\ptmodel_2022-04-27_06_51_01.210878/</t>
+  </si>
+  <si>
+    <t>data\ptmodel_2022-04-27_07_49_27.544349/</t>
+  </si>
+  <si>
+    <t>data\ptmodel_2022-04-27_08_06_47.047017/</t>
   </si>
   <si>
     <t>train_data</t>
@@ -554,13 +593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:BF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:58">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,154 +747,533 @@
       <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:58">
       <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2">
         <v>32</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>32</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0.8</v>
+      </c>
+      <c r="N2">
+        <v>500</v>
+      </c>
+      <c r="O2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2">
+        <v>278.4970092773438</v>
+      </c>
+      <c r="Y2">
+        <v>0.7935053703064504</v>
+      </c>
+      <c r="Z2">
+        <v>0.5880684190574047</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2">
+      <c r="AC2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2">
+        <v>5</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>6</v>
+      </c>
+      <c r="AI2">
+        <v>10</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>3</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO2">
+        <v>40.39199113845825</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ2">
+        <v>48.853</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0.4859436025389964</v>
+      </c>
+      <c r="AT2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="AV2">
+        <v>40.97</v>
+      </c>
+      <c r="AW2">
+        <v>7</v>
+      </c>
+      <c r="AX2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>3</v>
+      </c>
+      <c r="AZ2">
+        <v>2</v>
+      </c>
+      <c r="BB2">
+        <v>173.7197544574738</v>
+      </c>
+      <c r="BC2">
+        <v>1651022637.95694</v>
+      </c>
+      <c r="BD2">
+        <v>177.4426748752594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>0.8</v>
       </c>
-      <c r="L2">
+      <c r="N3">
         <v>500</v>
       </c>
-      <c r="M2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2">
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3">
         <v>5</v>
       </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2">
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3">
         <v>278.4970092773438</v>
       </c>
-      <c r="W2">
+      <c r="Y3">
         <v>0.7935053703064504</v>
       </c>
-      <c r="X2">
+      <c r="Z3">
         <v>0.5880684190574047</v>
       </c>
-      <c r="Y2" t="b">
+      <c r="AA3" t="b">
         <v>0</v>
       </c>
-      <c r="Z2">
+      <c r="AB3">
         <v>50</v>
       </c>
-      <c r="AA2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB2">
+      <c r="AC3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3">
         <v>5</v>
       </c>
-      <c r="AC2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF2">
+      <c r="AE3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH3">
         <v>6</v>
       </c>
-      <c r="AG2">
+      <c r="AI3">
         <v>10</v>
       </c>
-      <c r="AH2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK2">
+      <c r="AJ3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>3</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO3">
+        <v>39.82676148414612</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ3">
+        <v>48.853</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0.4859436025389964</v>
+      </c>
+      <c r="AT3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="AV3">
+        <v>40.97</v>
+      </c>
+      <c r="AW3">
+        <v>7</v>
+      </c>
+      <c r="AX3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>3</v>
+      </c>
+      <c r="AZ3">
+        <v>2</v>
+      </c>
+      <c r="BB3">
+        <v>160.5271420478821</v>
+      </c>
+      <c r="BC3">
+        <v>1651026131.033363</v>
+      </c>
+      <c r="BD3">
+        <v>164.7280344963074</v>
+      </c>
+      <c r="BE3">
+        <v>2000</v>
+      </c>
+      <c r="BF3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
         <v>60</v>
       </c>
-      <c r="AN2">
-        <v>48.853</v>
-      </c>
-      <c r="AO2">
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.8</v>
+      </c>
+      <c r="N4">
+        <v>5000</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4">
+        <v>1318.860229492188</v>
+      </c>
+      <c r="Y4">
+        <v>0.9542974079126875</v>
+      </c>
+      <c r="Z4">
+        <v>0.9979756753212693</v>
+      </c>
+      <c r="AA4" t="b">
         <v>0</v>
       </c>
-      <c r="AP2">
-        <v>0.4859436025389964</v>
-      </c>
-      <c r="AQ2" t="b">
+      <c r="AB4">
+        <v>50</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>6</v>
+      </c>
+      <c r="AI4">
+        <v>50</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>3</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO4">
+        <v>97.81152153015137</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ4">
+        <v>66.66670000000001</v>
+      </c>
+      <c r="AR4">
         <v>0</v>
       </c>
-      <c r="AR2">
-        <v>0.4097222222222222</v>
-      </c>
-      <c r="AS2">
-        <v>40.97</v>
-      </c>
-      <c r="AT2">
+      <c r="AS4">
+        <v>0.8585069444444444</v>
+      </c>
+      <c r="AT4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0.8585069444444443</v>
+      </c>
+      <c r="AV4">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="AW4">
         <v>7</v>
       </c>
-      <c r="AU2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV2">
+      <c r="AX4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY4">
         <v>3</v>
       </c>
-      <c r="AW2">
+      <c r="AZ4">
         <v>2</v>
+      </c>
+      <c r="BB4">
+        <v>794.5880978107452</v>
+      </c>
+      <c r="BC4">
+        <v>1651027812.30719</v>
+      </c>
+      <c r="BD4">
+        <v>808.3329162597656</v>
+      </c>
+      <c r="BE4">
+        <v>2000</v>
+      </c>
+      <c r="BF4">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/oclog/openset/notebooks/mytest.xlsx
+++ b/oclog/openset/notebooks/mytest.xlsx
@@ -14,7 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+  <si>
+    <t>Unnamed: 0.5</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.4</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.3</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.2</t>
+  </si>
   <si>
     <t>Unnamed: 0.1</t>
   </si>
@@ -187,6 +199,9 @@
     <t>tsne_perplexity</t>
   </si>
   <si>
+    <t>embedding_size</t>
+  </si>
+  <si>
     <t>2022-04-27_06_53_57.955941_b60511fbc5c811ecba05ac8247733f47</t>
   </si>
   <si>
@@ -196,6 +211,18 @@
     <t>2022-04-27_08_20_12.307190_c22c69a3c5d411eca8e1ac8247733f47</t>
   </si>
   <si>
+    <t>2022-05-04_18_17_59.669625_6dadd6bbcba811ecb9f2ac8247733f47</t>
+  </si>
+  <si>
+    <t>2022-05-04_19_27_08.271137_16703153cbb211ecaac8ac8247733f47</t>
+  </si>
+  <si>
+    <t>2022-05-04_21_30_52.356035_5f89a59ecbc311ecba05ac8247733f47</t>
+  </si>
+  <si>
+    <t>2022-05-04_21_39_46.334228_9dd040d1cbc411ecba05ac8247733f47</t>
+  </si>
+  <si>
     <t>C:\ML_data\Logs\BGL.log</t>
   </si>
   <si>
@@ -217,6 +244,15 @@
     <t>6.8490844,6.853139</t>
   </si>
   <si>
+    <t>7.6590767,7.6296587</t>
+  </si>
+  <si>
+    <t>7.158868,7.164533,7.2192526</t>
+  </si>
+  <si>
+    <t>7.173638,7.1776214,7.223321</t>
+  </si>
+  <si>
     <t>adam</t>
   </si>
   <si>
@@ -233,6 +269,18 @@
   </si>
   <si>
     <t>data\ptmodel_2022-04-27_08_06_47.047017/</t>
+  </si>
+  <si>
+    <t>data\ptmodel_2022-05-04_18_06_40.600143/</t>
+  </si>
+  <si>
+    <t>data\ptmodel_2022-05-04_19_22_02.938309/</t>
+  </si>
+  <si>
+    <t>data\ptmodel_2022-05-04_21_25_55.385484/</t>
+  </si>
+  <si>
+    <t>data\ptmodel_2022-05-04_21_34_51.686476/</t>
   </si>
   <si>
     <t>train_data</t>
@@ -593,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF4"/>
+  <dimension ref="A1:BK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,8 +819,23 @@
       <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -780,500 +843,1234 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2">
         <v>32</v>
       </c>
-      <c r="F2">
+      <c r="J2">
         <v>32</v>
       </c>
-      <c r="G2">
+      <c r="K2">
         <v>64</v>
       </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0.8</v>
+      </c>
+      <c r="R2">
+        <v>500</v>
+      </c>
+      <c r="S2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2">
+        <v>278.4970092773438</v>
+      </c>
+      <c r="AC2">
+        <v>0.7935053703064504</v>
+      </c>
+      <c r="AD2">
+        <v>0.5880684190574047</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>50</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH2">
+        <v>5</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>6</v>
+      </c>
+      <c r="AM2">
+        <v>10</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>3</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS2">
+        <v>40.39199113845825</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU2">
+        <v>48.853</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0.4859436025389964</v>
+      </c>
+      <c r="AX2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="AZ2">
+        <v>40.97</v>
+      </c>
+      <c r="BA2">
+        <v>7</v>
+      </c>
+      <c r="BB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>3</v>
+      </c>
+      <c r="BD2">
+        <v>2</v>
+      </c>
+      <c r="BF2">
+        <v>173.7197544574738</v>
+      </c>
+      <c r="BG2">
+        <v>1651022637.95694</v>
+      </c>
+      <c r="BH2">
+        <v>177.4426748752594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>63</v>
       </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2">
+      <c r="I3">
+        <v>32</v>
+      </c>
+      <c r="J3">
+        <v>32</v>
+      </c>
+      <c r="K3">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>0.8</v>
       </c>
-      <c r="N2">
+      <c r="R3">
         <v>500</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3">
+        <v>278.4970092773438</v>
+      </c>
+      <c r="AC3">
+        <v>0.7935053703064504</v>
+      </c>
+      <c r="AD3">
+        <v>0.5880684190574047</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>50</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH3">
+        <v>5</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>6</v>
+      </c>
+      <c r="AM3">
+        <v>10</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>3</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS3">
+        <v>39.82676148414612</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU3">
+        <v>48.853</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0.4859436025389964</v>
+      </c>
+      <c r="AX3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="AZ3">
+        <v>40.97</v>
+      </c>
+      <c r="BA3">
+        <v>7</v>
+      </c>
+      <c r="BB3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>3</v>
+      </c>
+      <c r="BD3">
+        <v>2</v>
+      </c>
+      <c r="BF3">
+        <v>160.5271420478821</v>
+      </c>
+      <c r="BG3">
+        <v>1651026131.033363</v>
+      </c>
+      <c r="BH3">
+        <v>164.7280344963074</v>
+      </c>
+      <c r="BI3">
+        <v>2000</v>
+      </c>
+      <c r="BJ3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>64</v>
       </c>
-      <c r="P2">
+      <c r="I4">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>32</v>
+      </c>
+      <c r="K4">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0.8</v>
+      </c>
+      <c r="R4">
+        <v>5000</v>
+      </c>
+      <c r="S4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T4">
         <v>5</v>
       </c>
-      <c r="Q2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB4">
+        <v>1318.860229492188</v>
+      </c>
+      <c r="AC4">
+        <v>0.9542974079126875</v>
+      </c>
+      <c r="AD4">
+        <v>0.9979756753212693</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>50</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>6</v>
+      </c>
+      <c r="AM4">
+        <v>50</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>3</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS4">
+        <v>97.81152153015137</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU4">
+        <v>66.66670000000001</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0.8585069444444444</v>
+      </c>
+      <c r="AX4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0.8585069444444443</v>
+      </c>
+      <c r="AZ4">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="BA4">
+        <v>7</v>
+      </c>
+      <c r="BB4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>3</v>
+      </c>
+      <c r="BD4">
+        <v>2</v>
+      </c>
+      <c r="BF4">
+        <v>794.5880978107452</v>
+      </c>
+      <c r="BG4">
+        <v>1651027812.30719</v>
+      </c>
+      <c r="BH4">
+        <v>808.3329162597656</v>
+      </c>
+      <c r="BI4">
+        <v>2000</v>
+      </c>
+      <c r="BJ4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>65</v>
       </c>
-      <c r="X2">
-        <v>278.4970092773438</v>
-      </c>
-      <c r="Y2">
-        <v>0.7935053703064504</v>
-      </c>
-      <c r="Z2">
-        <v>0.5880684190574047</v>
-      </c>
-      <c r="AA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB2">
+      <c r="I5">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>64</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.8</v>
+      </c>
+      <c r="R5">
+        <v>5000</v>
+      </c>
+      <c r="S5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB5">
+        <v>1224.778564453125</v>
+      </c>
+      <c r="AC5">
+        <v>0.9542974079126875</v>
+      </c>
+      <c r="AD5">
+        <v>0.9974670977526991</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5">
         <v>50</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>10</v>
+      </c>
+      <c r="AM5">
+        <v>9</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>3</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS5">
+        <v>251.5822975635529</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU5">
+        <v>100</v>
+      </c>
+      <c r="AV5">
+        <v>100</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>100</v>
+      </c>
+      <c r="BA5">
+        <v>5</v>
+      </c>
+      <c r="BB5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>3</v>
+      </c>
+      <c r="BD5">
+        <v>2.6</v>
+      </c>
+      <c r="BF5">
+        <v>667.4364199638367</v>
+      </c>
+      <c r="BG5">
+        <v>1651668479.670624</v>
+      </c>
+      <c r="BH5">
+        <v>682.5601966381073</v>
+      </c>
+      <c r="BI5">
+        <v>2000</v>
+      </c>
+      <c r="BJ5">
+        <v>8</v>
+      </c>
+      <c r="BK5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6">
+        <v>32</v>
+      </c>
+      <c r="J6">
+        <v>32</v>
+      </c>
+      <c r="K6">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0.8</v>
+      </c>
+      <c r="R6">
+        <v>1500</v>
+      </c>
+      <c r="S6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB6">
+        <v>2370.13720703125</v>
+      </c>
+      <c r="AC6">
+        <v>0.4716037585252751</v>
+      </c>
+      <c r="AD6">
+        <v>0.4378152744148507</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>50</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH6">
+        <v>3</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>6</v>
+      </c>
+      <c r="AM6">
+        <v>10</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>3</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS6">
+        <v>67.96773266792297</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU6">
+        <v>58.1871</v>
+      </c>
+      <c r="AV6">
+        <v>57.6687</v>
+      </c>
+      <c r="AW6">
+        <v>0.5745411292589004</v>
+      </c>
+      <c r="AX6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0.640625</v>
+      </c>
+      <c r="AZ6">
+        <v>64.06</v>
+      </c>
+      <c r="BA6">
+        <v>5</v>
+      </c>
+      <c r="BB6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>3</v>
+      </c>
+      <c r="BD6">
+        <v>2.5</v>
+      </c>
+      <c r="BF6">
+        <v>299.6906492710114</v>
+      </c>
+      <c r="BG6">
+        <v>1651672628.271138</v>
+      </c>
+      <c r="BH6">
+        <v>306.9164860248566</v>
+      </c>
+      <c r="BI6">
+        <v>2000</v>
+      </c>
+      <c r="BJ6">
+        <v>8</v>
+      </c>
+      <c r="BK6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
         <v>67</v>
       </c>
-      <c r="AD2">
+      <c r="I7">
+        <v>32</v>
+      </c>
+      <c r="J7">
+        <v>32</v>
+      </c>
+      <c r="K7">
+        <v>64</v>
+      </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0.8</v>
+      </c>
+      <c r="R7">
+        <v>1500</v>
+      </c>
+      <c r="S7" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7">
         <v>5</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="U7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB7">
+        <v>814.43994140625</v>
+      </c>
+      <c r="AC7">
+        <v>0.663077238971659</v>
+      </c>
+      <c r="AD7">
+        <v>0.6546633897461424</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>50</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH7">
+        <v>3</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>6</v>
+      </c>
+      <c r="AM7">
+        <v>10</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>3</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS7">
+        <v>67.87371611595154</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU7">
+        <v>62.236</v>
+      </c>
+      <c r="AV7">
+        <v>61.0753</v>
+      </c>
+      <c r="AW7">
+        <v>0.6149376643696527</v>
+      </c>
+      <c r="AX7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0.6857638888888888</v>
+      </c>
+      <c r="AZ7">
+        <v>68.58</v>
+      </c>
+      <c r="BA7">
+        <v>5</v>
+      </c>
+      <c r="BB7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>3</v>
+      </c>
+      <c r="BD7">
+        <v>2.5</v>
+      </c>
+      <c r="BF7">
+        <v>291.4062495231628</v>
+      </c>
+      <c r="BG7">
+        <v>1651680052.356035</v>
+      </c>
+      <c r="BH7">
+        <v>298.6276512145996</v>
+      </c>
+      <c r="BI7">
+        <v>2000</v>
+      </c>
+      <c r="BJ7">
+        <v>8</v>
+      </c>
+      <c r="BK7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH2">
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0.8</v>
+      </c>
+      <c r="R8">
+        <v>1500</v>
+      </c>
+      <c r="S8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" t="b">
+        <v>1</v>
+      </c>
+      <c r="X8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB8">
+        <v>814.43994140625</v>
+      </c>
+      <c r="AC8">
+        <v>0.663077238971659</v>
+      </c>
+      <c r="AD8">
+        <v>0.6546633897461424</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>50</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH8">
+        <v>3</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL8">
         <v>6</v>
       </c>
-      <c r="AI2">
+      <c r="AM8">
         <v>10</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM2">
+      <c r="AN8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
         <v>3</v>
       </c>
-      <c r="AN2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO2">
-        <v>40.39199113845825</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ2">
-        <v>48.853</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0.4859436025389964</v>
-      </c>
-      <c r="AT2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0.4097222222222222</v>
-      </c>
-      <c r="AV2">
-        <v>40.97</v>
-      </c>
-      <c r="AW2">
-        <v>7</v>
-      </c>
-      <c r="AX2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY2">
+      <c r="AR8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS8">
+        <v>67.84909343719482</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU8">
+        <v>62.236</v>
+      </c>
+      <c r="AV8">
+        <v>61.0753</v>
+      </c>
+      <c r="AW8">
+        <v>0.6149376643696527</v>
+      </c>
+      <c r="AX8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0.6857638888888888</v>
+      </c>
+      <c r="AZ8">
+        <v>68.58</v>
+      </c>
+      <c r="BA8">
+        <v>5</v>
+      </c>
+      <c r="BB8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC8">
         <v>3</v>
       </c>
-      <c r="AZ2">
-        <v>2</v>
-      </c>
-      <c r="BB2">
-        <v>173.7197544574738</v>
-      </c>
-      <c r="BC2">
-        <v>1651022637.95694</v>
-      </c>
-      <c r="BD2">
-        <v>177.4426748752594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3">
-        <v>32</v>
-      </c>
-      <c r="F3">
-        <v>32</v>
-      </c>
-      <c r="G3">
-        <v>64</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.8</v>
-      </c>
-      <c r="N3">
-        <v>500</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3">
-        <v>278.4970092773438</v>
-      </c>
-      <c r="Y3">
-        <v>0.7935053703064504</v>
-      </c>
-      <c r="Z3">
-        <v>0.5880684190574047</v>
-      </c>
-      <c r="AA3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>50</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD3">
-        <v>5</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>6</v>
-      </c>
-      <c r="AI3">
-        <v>10</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM3">
-        <v>3</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO3">
-        <v>39.82676148414612</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ3">
-        <v>48.853</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0.4859436025389964</v>
-      </c>
-      <c r="AT3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0.4097222222222222</v>
-      </c>
-      <c r="AV3">
-        <v>40.97</v>
-      </c>
-      <c r="AW3">
-        <v>7</v>
-      </c>
-      <c r="AX3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY3">
-        <v>3</v>
-      </c>
-      <c r="AZ3">
-        <v>2</v>
-      </c>
-      <c r="BB3">
-        <v>160.5271420478821</v>
-      </c>
-      <c r="BC3">
-        <v>1651026131.033363</v>
-      </c>
-      <c r="BD3">
-        <v>164.7280344963074</v>
-      </c>
-      <c r="BE3">
+      <c r="BD8">
+        <v>2.5</v>
+      </c>
+      <c r="BF8">
+        <v>289.2298469543457</v>
+      </c>
+      <c r="BG8">
+        <v>1651680586.335231</v>
+      </c>
+      <c r="BH8">
+        <v>296.3209629058838</v>
+      </c>
+      <c r="BI8">
         <v>2000</v>
       </c>
-      <c r="BF3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>32</v>
-      </c>
-      <c r="G4">
-        <v>64</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.8</v>
-      </c>
-      <c r="N4">
-        <v>5000</v>
-      </c>
-      <c r="O4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" t="s">
-        <v>66</v>
-      </c>
-      <c r="X4">
-        <v>1318.860229492188</v>
-      </c>
-      <c r="Y4">
-        <v>0.9542974079126875</v>
-      </c>
-      <c r="Z4">
-        <v>0.9979756753212693</v>
-      </c>
-      <c r="AA4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>50</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD4">
-        <v>2</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>6</v>
-      </c>
-      <c r="AI4">
-        <v>50</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM4">
-        <v>3</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO4">
-        <v>97.81152153015137</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ4">
-        <v>66.66670000000001</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0.8585069444444444</v>
-      </c>
-      <c r="AT4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0.8585069444444443</v>
-      </c>
-      <c r="AV4">
-        <v>85.84999999999999</v>
-      </c>
-      <c r="AW4">
-        <v>7</v>
-      </c>
-      <c r="AX4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY4">
-        <v>3</v>
-      </c>
-      <c r="AZ4">
-        <v>2</v>
-      </c>
-      <c r="BB4">
-        <v>794.5880978107452</v>
-      </c>
-      <c r="BC4">
-        <v>1651027812.30719</v>
-      </c>
-      <c r="BD4">
-        <v>808.3329162597656</v>
-      </c>
-      <c r="BE4">
-        <v>2000</v>
-      </c>
-      <c r="BF4">
+      <c r="BJ8">
         <v>8</v>
+      </c>
+      <c r="BK8">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
